--- a/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="master-template_type" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="125">
   <si>
     <t>code</t>
   </si>
@@ -124,6 +125,276 @@
   </si>
   <si>
     <t>Modèle pour OTP dans SMS</t>
+  </si>
+  <si>
+    <t>RPR_DUP_UIN_EMAIL</t>
+  </si>
+  <si>
+    <t>RPR_DUP_UIN_SMS</t>
+  </si>
+  <si>
+    <t>RPR_TEC_ISSUE_EMAIL</t>
+  </si>
+  <si>
+    <t>RPR_TEC_ISSUE_SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_GEN_EMAIL</t>
+  </si>
+  <si>
+    <t>RPR_UIN_GEN_SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_UPD_EMAIL</t>
+  </si>
+  <si>
+    <t>RPR_UIN_UPD_SMS</t>
+  </si>
+  <si>
+    <t>Template for duplicate UIN Email</t>
+  </si>
+  <si>
+    <t>Template for duplicate UIN SMS</t>
+  </si>
+  <si>
+    <t>Template for Technical Issue Email</t>
+  </si>
+  <si>
+    <t>Template for Technical Issue SMS</t>
+  </si>
+  <si>
+    <t>Template for UIN generation Email</t>
+  </si>
+  <si>
+    <t>Template for update details Email</t>
+  </si>
+  <si>
+    <t>Template for UIN generation SMS</t>
+  </si>
+  <si>
+    <t>Template for update Details SMS</t>
+  </si>
+  <si>
+    <t>قالب لبريد إلكتروني مكرر الهوية</t>
+  </si>
+  <si>
+    <t>قالب لرسالة الهوية المكررة</t>
+  </si>
+  <si>
+    <t>نموذج للبريد الإلكتروني لمشكلة فنية</t>
+  </si>
+  <si>
+    <t>قالب لرسالة المشكلة الفنية</t>
+  </si>
+  <si>
+    <t>قالب لتوليد الهوية البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>قالب لرسالة توليد الهوية</t>
+  </si>
+  <si>
+    <t>قالب للحصول على تفاصيل التحديث</t>
+  </si>
+  <si>
+    <t>قالب لتحديث تفاصيل الرسالة</t>
+  </si>
+  <si>
+    <t>Modèle pour courrier électronique de problème technique</t>
+  </si>
+  <si>
+    <t>Modèle de message de problème technique</t>
+  </si>
+  <si>
+    <t>Modèle pour les détails de la mise à jour Email</t>
+  </si>
+  <si>
+    <t>Modèle pour la mise à jour Détails Message</t>
+  </si>
+  <si>
+    <t>Modèle de courrier didentité en double</t>
+  </si>
+  <si>
+    <t>Modèle de message didentité en double</t>
+  </si>
+  <si>
+    <t>Modèle de courrier électronique de génération didentité</t>
+  </si>
+  <si>
+    <t>Modèle de message de génération didentité</t>
+  </si>
+  <si>
+    <t>NewReg-email-content-template</t>
+  </si>
+  <si>
+    <t>NewReg-email-subject-template</t>
+  </si>
+  <si>
+    <t>NewReg-sms-template</t>
+  </si>
+  <si>
+    <t>OTP-email-content-template</t>
+  </si>
+  <si>
+    <t>OTP-email-subject-template</t>
+  </si>
+  <si>
+    <t>OTP-sms-template</t>
+  </si>
+  <si>
+    <t>Update-email-content-template</t>
+  </si>
+  <si>
+    <t>Update-email-subject-template</t>
+  </si>
+  <si>
+    <t>Update-sms-template</t>
+  </si>
+  <si>
+    <t>Template for new registration SMS</t>
+  </si>
+  <si>
+    <t>Template for new registration Email Content</t>
+  </si>
+  <si>
+    <t>Template for new registration Email Subject</t>
+  </si>
+  <si>
+    <t>Template for OTP generation Email Content</t>
+  </si>
+  <si>
+    <t>Template for OTP generation Email Subject</t>
+  </si>
+  <si>
+    <t>Template for OTP SMS</t>
+  </si>
+  <si>
+    <t>Template for update registration Email Content</t>
+  </si>
+  <si>
+    <t>Template for update registration Email Subject</t>
+  </si>
+  <si>
+    <t>Template for update registration SMS</t>
+  </si>
+  <si>
+    <t>Modèle pour nouvelle inscription Email Content</t>
+  </si>
+  <si>
+    <t>Modèle de nouvelle inscription SMS</t>
+  </si>
+  <si>
+    <t>Modèle pour SMS OTP</t>
+  </si>
+  <si>
+    <t>Modèle pour nouvelle inscription Objet de le-mail</t>
+  </si>
+  <si>
+    <t>Modèle de contenu de courrier électronique de génération dOTP</t>
+  </si>
+  <si>
+    <t>Modèle pour le sujet de-mail de génération dOTP</t>
+  </si>
+  <si>
+    <t>Modèle pour lenregistrement de la mise à jour</t>
+  </si>
+  <si>
+    <t>Modèle denregistrement de mise à jour Objet de le-mail</t>
+  </si>
+  <si>
+    <t>Modèle pour SMS denregistrement de mise à jour</t>
+  </si>
+  <si>
+    <t>قالب للتسجيل الجديد محتوى البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>قالب للتسجيل الجديد البريد الإلكتروني الموضوع</t>
+  </si>
+  <si>
+    <t>قالب لرسالة التسجيل الجديدة</t>
+  </si>
+  <si>
+    <t>قالب لتوليد OTP محتوى البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>قالب لتوليد OTP البريد الإلكتروني الموضوع</t>
+  </si>
+  <si>
+    <t>قالب لرسالة OTP</t>
+  </si>
+  <si>
+    <t>قالب لتحديث تسجيل محتوى البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>قالب لتسجيل التحديث البريد الإلكتروني الموضوع</t>
+  </si>
+  <si>
+    <t>قالب لرسالة تسجيل التحديث</t>
+  </si>
+  <si>
+    <t>Email-Acknowledgement</t>
+  </si>
+  <si>
+    <t>Onscreen-Acknowledgement</t>
+  </si>
+  <si>
+    <t>otp-email-content-template</t>
+  </si>
+  <si>
+    <t>otp-email-subject-template</t>
+  </si>
+  <si>
+    <t>otp-sms-template</t>
+  </si>
+  <si>
+    <t>SMS-Acknowledgement</t>
+  </si>
+  <si>
+    <t>Template for Email Acknowledgement</t>
+  </si>
+  <si>
+    <t>Template for Onscreen Acknowledgment</t>
+  </si>
+  <si>
+    <t>Template for OTP Email Content</t>
+  </si>
+  <si>
+    <t>Template for OTP Email Subject</t>
+  </si>
+  <si>
+    <t>Template for SMS Acknowledgement</t>
+  </si>
+  <si>
+    <t>قالب لتأكيد البريد الإلكتروني</t>
+  </si>
+  <si>
+    <t>قالب للشاشة شكر وتقدير</t>
+  </si>
+  <si>
+    <t>قالب لمحتوى البريد الإلكتروني OTP</t>
+  </si>
+  <si>
+    <t>قالب لموضوع البريد الإلكتروني OTP</t>
+  </si>
+  <si>
+    <t>قالب ل OTP SMS</t>
+  </si>
+  <si>
+    <t>قالب للإشعار SMS</t>
+  </si>
+  <si>
+    <t>Template for email confirmation</t>
+  </si>
+  <si>
+    <t>On-screen recognition template</t>
+  </si>
+  <si>
+    <t>OTP Email Content Template</t>
+  </si>
+  <si>
+    <t>Template for OTP email subject</t>
+  </si>
+  <si>
+    <t>Template for SMS Acknowledgment</t>
   </si>
 </sst>
 </file>
@@ -667,6 +938,27 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0">
+  <autoFilter ref="A1:F27">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="eng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="code"/>
+    <tableColumn id="2" name="descr"/>
+    <tableColumn id="3" name="lang_code"/>
+    <tableColumn id="4" name="is_active"/>
+    <tableColumn id="5" name="cr_by"/>
+    <tableColumn id="6" name="cr_dtimes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -964,11 +1256,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1012,6 +1311,1790 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1030,7 +3113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +3153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +3173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1130,7 +3213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1150,7 +3233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1190,7 +3273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +3293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1250,7 +3333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +3353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1310,7 +3393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +3413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1350,7 +3433,51 @@
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\Master Data Tables - Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="129">
   <si>
     <t>code</t>
   </si>
@@ -395,6 +395,18 @@
   </si>
   <si>
     <t>Template for SMS Acknowledgment</t>
+  </si>
+  <si>
+    <t>Template for email subject of Acknowledgement</t>
+  </si>
+  <si>
+    <t>Modèle pour le sujet d'email d'accusé de réception</t>
+  </si>
+  <si>
+    <t>قالب للتسليم البريد الكتروني الموضوع</t>
+  </si>
+  <si>
+    <t>Acknowledgement-email-subject</t>
   </si>
 </sst>
 </file>
@@ -1256,15 +1268,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G82" sqref="G1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3026,6 +3038,66 @@
         <v>9</v>
       </c>
       <c r="F88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
         <v>10</v>
       </c>
     </row>

--- a/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\Master Data Tables - Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{123030E5-5356-42A9-A4A3-62E432726131}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-template_type" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="162">
   <si>
     <t>code</t>
   </si>
@@ -407,12 +407,111 @@
   </si>
   <si>
     <t>Acknowledgement-email-subject</t>
+  </si>
+  <si>
+    <t>RPR_UIN_CARD_TEMPLATE</t>
+  </si>
+  <si>
+    <t>UIN card template</t>
+  </si>
+  <si>
+    <t>قالب بطاقة UIN</t>
+  </si>
+  <si>
+    <t>Modèle de carte UIN</t>
+  </si>
+  <si>
+    <t>RPR_UIN_DEAC_SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_DEAC_EMAIL</t>
+  </si>
+  <si>
+    <t>RPR_UIN_REAC_SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_REAC_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for UIN Deactivation SMS</t>
+  </si>
+  <si>
+    <t>قالب لتعطيل UIN SMS</t>
+  </si>
+  <si>
+    <t>قالب لإلغاء تنشيط البريد</t>
+  </si>
+  <si>
+    <t>Template for UIN Deactivation Email</t>
+  </si>
+  <si>
+    <t>Template for UIN Reactivate SMS</t>
+  </si>
+  <si>
+    <t>قالب لـ UIN تنشيط SMS</t>
+  </si>
+  <si>
+    <t>قالب لـ UIN تنشيط البريد</t>
+  </si>
+  <si>
+    <t>Template for UIN Reactivate Email</t>
+  </si>
+  <si>
+    <t>Modèle pour SMS de désactivation UIN</t>
+  </si>
+  <si>
+    <t>Modèle pour Email de désactivation UIN</t>
+  </si>
+  <si>
+    <t>Modèle pour UIN Réactiver SMS</t>
+  </si>
+  <si>
+    <t>Modèle pour UIN Réactiver Email</t>
+  </si>
+  <si>
+    <t>reg-sms-notification</t>
+  </si>
+  <si>
+    <t>reg-email-notification</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part1</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part2</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part3</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template - Part 1</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template - Part 2</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template - Part 3</t>
+  </si>
+  <si>
+    <t>نموذج شكر التسجيل</t>
+  </si>
+  <si>
+    <t>accusé de réception</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part4</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part5</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -950,27 +1049,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0">
-  <autoFilter ref="A1:F27">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="eng"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" name="code"/>
-    <tableColumn id="2" name="descr"/>
-    <tableColumn id="3" name="lang_code"/>
-    <tableColumn id="4" name="is_active"/>
-    <tableColumn id="5" name="cr_by"/>
-    <tableColumn id="6" name="cr_dtimes"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1267,11 +1345,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G82" sqref="G1:XFD1048576"/>
+      <selection activeCell="A122" sqref="A122:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3101,455 +3179,608 @@
         <v>10</v>
       </c>
     </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>160</v>
+      </c>
+      <c r="B121" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{123030E5-5356-42A9-A4A3-62E432726131}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{94CAF3C0-D4D4-40C4-B6F9-511581DB7A28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="160">
   <si>
     <t>code</t>
   </si>
@@ -497,12 +497,6 @@
   </si>
   <si>
     <t>accusé de réception</t>
-  </si>
-  <si>
-    <t>reg-ack-template-part4</t>
-  </si>
-  <si>
-    <t>reg-ack-template-part5</t>
   </si>
   <si>
     <t>Registration Acknowledgement Template</t>
@@ -1349,7 +1343,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3484,7 +3478,7 @@
         <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
@@ -3544,7 +3538,7 @@
         <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -3621,7 +3615,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
         <v>157</v>
@@ -3641,7 +3635,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B115" t="s">
         <v>158</v>
@@ -3681,7 +3675,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B117" t="s">
         <v>157</v>
@@ -3701,7 +3695,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B118" t="s">
         <v>158</v>
@@ -3741,7 +3735,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
         <v>157</v>
@@ -3761,7 +3755,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
         <v>158</v>

--- a/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Documents\GitHub\mosip\docs\requirements\Master Data Tables - Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{94CAF3C0-D4D4-40C4-B6F9-511581DB7A28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-template_type" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="160">
   <si>
     <t>code</t>
   </si>
@@ -407,12 +407,105 @@
   </si>
   <si>
     <t>Acknowledgement-email-subject</t>
+  </si>
+  <si>
+    <t>RPR_UIN_CARD_TEMPLATE</t>
+  </si>
+  <si>
+    <t>UIN card template</t>
+  </si>
+  <si>
+    <t>قالب بطاقة UIN</t>
+  </si>
+  <si>
+    <t>Modèle de carte UIN</t>
+  </si>
+  <si>
+    <t>RPR_UIN_DEAC_SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_DEAC_EMAIL</t>
+  </si>
+  <si>
+    <t>RPR_UIN_REAC_SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_REAC_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for UIN Deactivation SMS</t>
+  </si>
+  <si>
+    <t>قالب لتعطيل UIN SMS</t>
+  </si>
+  <si>
+    <t>قالب لإلغاء تنشيط البريد</t>
+  </si>
+  <si>
+    <t>Template for UIN Deactivation Email</t>
+  </si>
+  <si>
+    <t>Template for UIN Reactivate SMS</t>
+  </si>
+  <si>
+    <t>قالب لـ UIN تنشيط SMS</t>
+  </si>
+  <si>
+    <t>قالب لـ UIN تنشيط البريد</t>
+  </si>
+  <si>
+    <t>Template for UIN Reactivate Email</t>
+  </si>
+  <si>
+    <t>Modèle pour SMS de désactivation UIN</t>
+  </si>
+  <si>
+    <t>Modèle pour Email de désactivation UIN</t>
+  </si>
+  <si>
+    <t>Modèle pour UIN Réactiver SMS</t>
+  </si>
+  <si>
+    <t>Modèle pour UIN Réactiver Email</t>
+  </si>
+  <si>
+    <t>reg-sms-notification</t>
+  </si>
+  <si>
+    <t>reg-email-notification</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part1</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part2</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part3</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template - Part 1</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template - Part 2</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template - Part 3</t>
+  </si>
+  <si>
+    <t>نموذج شكر التسجيل</t>
+  </si>
+  <si>
+    <t>accusé de réception</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -950,27 +1043,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F27" totalsRowShown="0">
-  <autoFilter ref="A1:F27">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="eng"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" name="code"/>
-    <tableColumn id="2" name="descr"/>
-    <tableColumn id="3" name="lang_code"/>
-    <tableColumn id="4" name="is_active"/>
-    <tableColumn id="5" name="cr_by"/>
-    <tableColumn id="6" name="cr_dtimes"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1267,11 +1339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G82" sqref="G1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3101,455 +3173,608 @@
         <v>10</v>
       </c>
     </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" t="s">
+        <v>138</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B101" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>136</v>
+      </c>
+      <c r="B106" t="s">
+        <v>148</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{94CAF3C0-D4D4-40C4-B6F9-511581DB7A28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7456DEAB-CADB-4486-8733-57CF160B48F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="162">
   <si>
     <t>code</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>Registration Acknowledgement Template</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part4</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template - Part 4</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:XFD1048576"/>
+      <selection activeCell="A125" sqref="A125:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3773,6 +3779,66 @@
         <v>10</v>
       </c>
     </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" t="s">
+        <v>157</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>160</v>
+      </c>
+      <c r="B124" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7456DEAB-CADB-4486-8733-57CF160B48F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5BD3579B-4297-465D-BA11-D4C13008A21C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="178">
   <si>
     <t>code</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Modèle de SMS dautorisation</t>
   </si>
   <si>
-    <t>otp-email-content</t>
-  </si>
-  <si>
     <t>Template for Email Content</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Modèle de contenu de courrier électronique</t>
   </si>
   <si>
-    <t>otp-email-subject</t>
-  </si>
-  <si>
     <t>Template for Email Subject</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>Modèle pour sujet demail</t>
   </si>
   <si>
-    <t>otp-sms</t>
-  </si>
-  <si>
     <t xml:space="preserve">Template for OTP in SMS </t>
   </si>
   <si>
@@ -506,6 +497,63 @@
   </si>
   <si>
     <t>Registration Acknowledgement Template - Part 4</t>
+  </si>
+  <si>
+    <t>ida-auth-otp-sms-template</t>
+  </si>
+  <si>
+    <t>ida-auth-otp-email-subject-template</t>
+  </si>
+  <si>
+    <t>ida-auth-otp-email-content-template</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>موافقة</t>
+  </si>
+  <si>
+    <t>Consentement</t>
+  </si>
+  <si>
+    <t>auth-otp-email-subject-template</t>
+  </si>
+  <si>
+    <t>auth-otp-email-content-template</t>
+  </si>
+  <si>
+    <t>auth-otp-sms-template</t>
+  </si>
+  <si>
+    <t>Auth OTP Email Subject Template</t>
+  </si>
+  <si>
+    <t>Auth OTP Email Content Template</t>
+  </si>
+  <si>
+    <t>Auth OTP SMS Template</t>
+  </si>
+  <si>
+    <t>Modèle dobjet de-mail Auth OTP</t>
+  </si>
+  <si>
+    <t>Auth OTP Email ContentTemplate</t>
+  </si>
+  <si>
+    <t>Modèle SMS OTP Auth</t>
+  </si>
+  <si>
+    <t>مصادقة قالب رسالة OTP</t>
+  </si>
+  <si>
+    <t>مصادقة OTP قالب محتوى</t>
+  </si>
+  <si>
+    <t>مصادقة OTP قالب موضوع</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:XFD1048576"/>
+      <selection activeCell="A137" sqref="A137:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1441,10 +1489,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1461,10 +1509,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1481,10 +1529,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1561,10 +1609,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1581,10 +1629,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1601,10 +1649,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1681,10 +1729,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1701,10 +1749,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1721,10 +1769,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1741,10 +1789,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1761,10 +1809,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1781,10 +1829,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1801,10 +1849,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1821,10 +1869,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1841,10 +1889,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1861,10 +1909,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1881,10 +1929,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1901,10 +1949,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1921,10 +1969,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1941,10 +1989,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -1961,10 +2009,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -1981,10 +2029,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -2001,10 +2049,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -2021,10 +2069,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -2041,10 +2089,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -2061,10 +2109,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2081,10 +2129,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2101,10 +2149,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2121,10 +2169,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2141,10 +2189,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2161,10 +2209,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2181,10 +2229,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2201,10 +2249,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2221,10 +2269,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -2241,10 +2289,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -2261,10 +2309,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
@@ -2281,10 +2329,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
@@ -2301,10 +2349,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -2321,10 +2369,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
@@ -2341,10 +2389,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -2361,10 +2409,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -2381,10 +2429,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -2401,10 +2449,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -2421,10 +2469,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -2441,10 +2489,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -2461,10 +2509,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -2481,10 +2529,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
@@ -2501,10 +2549,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2521,10 +2569,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2541,10 +2589,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
@@ -2561,10 +2609,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
@@ -2581,10 +2629,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2601,10 +2649,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -2621,10 +2669,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -2641,10 +2689,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -2661,10 +2709,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -2681,10 +2729,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -2701,10 +2749,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -2721,10 +2769,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -2741,10 +2789,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -2761,10 +2809,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -2781,10 +2829,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
@@ -2801,10 +2849,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -2821,10 +2869,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -2841,10 +2889,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -2861,10 +2909,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -2881,10 +2929,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
         <v>12</v>
@@ -2901,10 +2949,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -2921,10 +2969,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -2941,10 +2989,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -2961,10 +3009,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -2981,10 +3029,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
         <v>12</v>
@@ -3001,10 +3049,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3021,10 +3069,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -3041,10 +3089,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -3061,10 +3109,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -3081,10 +3129,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -3101,10 +3149,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -3121,10 +3169,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
@@ -3141,10 +3189,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -3161,10 +3209,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -3181,10 +3229,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -3201,10 +3249,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
@@ -3221,10 +3269,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
         <v>129</v>
-      </c>
-      <c r="B94" t="s">
-        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -3241,10 +3289,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -3261,10 +3309,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -3281,10 +3329,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -3301,10 +3349,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -3321,10 +3369,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -3341,10 +3389,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -3361,10 +3409,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -3381,10 +3429,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -3401,10 +3449,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -3421,10 +3469,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
@@ -3441,10 +3489,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -3461,10 +3509,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -3481,10 +3529,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
@@ -3501,10 +3549,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
@@ -3521,10 +3569,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -3541,10 +3589,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -3561,10 +3609,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
@@ -3581,10 +3629,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -3601,10 +3649,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" t="s">
         <v>151</v>
-      </c>
-      <c r="B113" t="s">
-        <v>154</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
@@ -3621,10 +3669,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
@@ -3641,10 +3689,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -3661,10 +3709,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" t="s">
         <v>152</v>
-      </c>
-      <c r="B116" t="s">
-        <v>155</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -3681,10 +3729,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -3701,10 +3749,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -3721,10 +3769,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" t="s">
         <v>153</v>
-      </c>
-      <c r="B119" t="s">
-        <v>156</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -3741,10 +3789,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -3761,10 +3809,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -3781,10 +3829,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
@@ -3801,10 +3849,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
@@ -3821,10 +3869,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -3836,6 +3884,246 @@
         <v>9</v>
       </c>
       <c r="F124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>162</v>
+      </c>
+      <c r="B125" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>162</v>
+      </c>
+      <c r="B126" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" t="s">
+        <v>165</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>166</v>
+      </c>
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" t="s">
+        <v>172</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>167</v>
+      </c>
+      <c r="B131" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>167</v>
+      </c>
+      <c r="B132" t="s">
+        <v>176</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>167</v>
+      </c>
+      <c r="B133" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
         <v>10</v>
       </c>
     </row>
